--- a/IPL/Data/exp/pstats_v01_CSK_fyml.xlsx
+++ b/IPL/Data/exp/pstats_v01_CSK_fyml.xlsx
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>4</v>
@@ -1322,10 +1322,10 @@
         <v>29</v>
       </c>
       <c r="AX3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AY3" t="n">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AZ3" t="n">
         <v>44</v>
@@ -1337,10 +1337,10 @@
         <v>6</v>
       </c>
       <c r="BC3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
@@ -1569,7 +1569,7 @@
         <v>110</v>
       </c>
       <c r="AY4" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AZ4" t="n">
         <v>44</v>
@@ -1584,7 +1584,7 @@
         <v>39</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
@@ -2106,10 +2106,10 @@
         <v>80</v>
       </c>
       <c r="AX6" t="n">
+        <v>179</v>
+      </c>
+      <c r="AY6" t="n">
         <v>177</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>164</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>49</v>
       </c>
       <c r="BD6" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
@@ -2595,7 +2595,7 @@
         <v>65</v>
       </c>
       <c r="AY8" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>53</v>
       </c>
       <c r="BD8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
@@ -3116,7 +3116,7 @@
         <v>96</v>
       </c>
       <c r="AX10" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -3131,7 +3131,7 @@
         <v>98</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BD10" t="n">
         <v>17</v>
